--- a/xlsx/印第安保留地_intext.xlsx
+++ b/xlsx/印第安保留地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>印第安保留地</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国行政区划</t>
   </si>
   <si>
-    <t>政策_政策_美國_印第安保留地</t>
+    <t>政策_政策_美国_印第安保留地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>鎮區 (美國)</t>
+    <t>镇区 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>公寓大廈管理委員會</t>
+    <t>公寓大厦管理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -323,9 +323,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -551,9 +548,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -617,31 +611,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -659,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -683,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -695,25 +686,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -747,9 +738,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2558,7 @@
         <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2596,10 +2584,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2625,10 +2613,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2654,10 +2642,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2683,10 +2671,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2712,10 +2700,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2741,10 +2729,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2770,10 +2758,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2828,10 +2816,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2857,10 +2845,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2886,10 +2874,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2915,10 +2903,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2944,10 +2932,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2973,10 +2961,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3002,10 +2990,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3031,10 +3019,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3060,10 +3048,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3089,10 +3077,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3118,10 +3106,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3147,10 +3135,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3176,10 +3164,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3205,10 +3193,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3234,10 +3222,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3263,10 +3251,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3292,10 +3280,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3321,10 +3309,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3350,10 +3338,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3379,10 +3367,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3408,10 +3396,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3437,10 +3425,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3466,10 +3454,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3495,10 +3483,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3524,10 +3512,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3553,10 +3541,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3582,10 +3570,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3611,10 +3599,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3640,10 +3628,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3669,10 +3657,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3698,10 +3686,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3727,10 +3715,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3756,10 +3744,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3785,10 +3773,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3814,10 +3802,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3843,10 +3831,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3872,10 +3860,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3901,10 +3889,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3930,10 +3918,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3988,10 +3976,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4017,10 +4005,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4046,10 +4034,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4075,10 +4063,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4104,10 +4092,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4133,10 +4121,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4162,10 +4150,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4191,10 +4179,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4220,10 +4208,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4249,10 +4237,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4278,10 +4266,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4307,10 +4295,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4336,10 +4324,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4365,10 +4353,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4394,10 +4382,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4423,10 +4411,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4452,10 +4440,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4481,10 +4469,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4510,10 +4498,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4539,10 +4527,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4568,10 +4556,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4597,10 +4585,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4626,10 +4614,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4655,10 +4643,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4684,10 +4672,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="G124" t="n">
         <v>6</v>
